--- a/Task/2016-04-21-进口食品数据分析/Report/2016年进口商品-门店-分析.xlsx
+++ b/Task/2016-04-21-进口食品数据分析/Report/2016年进口商品-门店-分析.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WORK\BBG\Task\2016-04-21-进口食品数据分析\Report\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4507"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7215"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="门店整体销售排名" sheetId="3" r:id="rId1"/>
@@ -25,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="237">
   <si>
     <t>地点</t>
   </si>
@@ -754,12 +749,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1473,35 +1468,35 @@
     <xf numFmtId="10" fontId="23" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="22" fillId="33" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
-    <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 着色 6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 着色 6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 着色 6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="41" builtinId="52" customBuiltin="1"/>
     <cellStyle name="标题" xfId="1" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="标题 2" xfId="3" builtinId="17" customBuiltin="1"/>
@@ -1517,16 +1512,16 @@
     <cellStyle name="解释性文本" xfId="16" builtinId="53" customBuiltin="1"/>
     <cellStyle name="警告文本" xfId="14" builtinId="11" customBuiltin="1"/>
     <cellStyle name="链接单元格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="强调文字颜色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="适中" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="已访问的超链接" xfId="43" builtinId="9" customBuiltin="1"/>
-    <cellStyle name="着色 1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="着色 2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="着色 3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="着色 4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="着色 5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1544,21 +1539,10 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1587,12 +1571,10 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1632,73 +1614,72 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
-              <c:f>门店整体销售排名!$D$2:$D$21</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+            <c:strRef>
+              <c:f>门店整体销售排名!$B$2:$B$21</c:f>
+              <c:strCache>
                 <c:ptCount val="20"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>120164-长沙金星路店</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>120145-购广超市</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>120201-湘潭东方红店</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>120056-红星店</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>120170-岳阳金鹗店</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6</c:v>
+                  <c:v>120129-永州舜德摩尔超市</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7</c:v>
+                  <c:v>120216-易俗河广场店</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8</c:v>
+                  <c:v>120189-长沙王家湾店</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>120033-金海店</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10</c:v>
+                  <c:v>120195-柳州广场路店</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>11</c:v>
+                  <c:v>120082-东都店</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12</c:v>
+                  <c:v>120020-邵阳购物广场超市</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13</c:v>
+                  <c:v>120213-郫县红光店</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>14</c:v>
+                  <c:v>120173-张家界十字街店</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15</c:v>
+                  <c:v>120180-宜春中山路店</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>120185-衡阳解放路店</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17</c:v>
+                  <c:v>120122-长沙南国</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>18</c:v>
+                  <c:v>120095-徐家井店</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>19</c:v>
+                  <c:v>120027-湘乡店</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+                  <c:v>120015-康富店</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1769,25 +1750,16 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1705409984"/>
-        <c:axId val="1705401824"/>
+        <c:dLbls/>
+        <c:axId val="83258752"/>
+        <c:axId val="83281024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1705409984"/>
+        <c:axId val="83258752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1805,7 +1777,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1840,16 +1811,15 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705401824"/>
+        <c:crossAx val="83281024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1705401824"/>
+        <c:axId val="83281024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1867,7 +1837,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1902,7 +1871,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705409984"/>
+        <c:crossAx val="83258752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1916,7 +1885,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1945,7 +1913,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1953,17 +1921,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:tx>
@@ -1993,7 +1951,6 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2001,34 +1958,12 @@
         </a:ln>
         <a:effectLst/>
       </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2052,7 +1987,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>门店整体销售排名!$B$2:$B$21</c:f>
@@ -2214,7 +2148,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>门店整体销售排名!$B$2:$B$21</c:f>
@@ -2353,29 +2286,20 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1705407808"/>
-        <c:axId val="1705394752"/>
+        <c:axId val="83777408"/>
+        <c:axId val="83778944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1705407808"/>
+        <c:axId val="83777408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2410,19 +2334,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705394752"/>
+        <c:crossAx val="83778944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1705394752"/>
+        <c:axId val="83778944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2440,7 +2362,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2469,7 +2390,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705407808"/>
+        <c:crossAx val="83777408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2484,7 +2405,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2515,7 +2435,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -2544,7 +2463,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2552,21 +2471,10 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -2595,13 +2503,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2625,7 +2531,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>门店整体销售排名!$B$2:$B$21</c:f>
@@ -2787,7 +2692,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>门店整体销售排名!$B$2:$B$21</c:f>
@@ -2926,28 +2830,18 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="1705408896"/>
-        <c:axId val="1705396384"/>
+        <c:dLbls/>
+        <c:axId val="84353792"/>
+        <c:axId val="84355328"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1705408896"/>
+        <c:axId val="84353792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -2982,19 +2876,17 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705396384"/>
+        <c:crossAx val="84355328"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1705396384"/>
+        <c:axId val="84355328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -3012,7 +2904,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -3041,7 +2932,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1705408896"/>
+        <c:crossAx val="84353792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3056,7 +2947,6 @@
     <c:legend>
       <c:legendPos val="b"/>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -3087,7 +2977,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -3116,7 +3005,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4910,7 +4799,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4945,7 +4834,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5122,24 +5011,24 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
+      <selection pane="bottomRight" sqref="A1:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.25" style="1" bestFit="1" customWidth="1"/>
@@ -5156,7 +5045,7 @@
     <col min="13" max="16384" width="16.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="50.25" thickBot="1">
       <c r="A1" s="11" t="s">
         <v>234</v>
       </c>
@@ -5194,7 +5083,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1">
       <c r="A2" s="11">
         <v>2</v>
       </c>
@@ -5230,7 +5119,7 @@
         <v>19.054035580000001</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="17.25" thickBot="1">
       <c r="A3" s="11">
         <v>22</v>
       </c>
@@ -5266,7 +5155,7 @@
         <v>16.853329649999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="17.25" thickBot="1">
       <c r="A4" s="11">
         <v>7</v>
       </c>
@@ -5302,7 +5191,7 @@
         <v>18.70367121</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1">
       <c r="A5" s="11">
         <v>1</v>
       </c>
@@ -5338,7 +5227,7 @@
         <v>12.495544049999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1">
       <c r="A6" s="11">
         <v>6</v>
       </c>
@@ -5374,7 +5263,7 @@
         <v>9.1069548099999995</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
       <c r="A7" s="11">
         <v>9</v>
       </c>
@@ -5410,7 +5299,7 @@
         <v>8.3511141900000005</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1">
       <c r="A8" s="11">
         <v>8</v>
       </c>
@@ -5446,7 +5335,7 @@
         <v>6.9545415099999994</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1">
       <c r="A9" s="11">
         <v>25</v>
       </c>
@@ -5482,7 +5371,7 @@
         <v>7.6971143800000004</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1">
       <c r="A10" s="11">
         <v>12</v>
       </c>
@@ -5518,7 +5407,7 @@
         <v>11.96702404</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="17.25" thickBot="1">
       <c r="A11" s="11">
         <v>23</v>
       </c>
@@ -5554,7 +5443,7 @@
         <v>4.5332383699999994</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1">
       <c r="A12" s="11">
         <v>3</v>
       </c>
@@ -5590,7 +5479,7 @@
         <v>6.8709594599999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1">
       <c r="A13" s="11">
         <v>19</v>
       </c>
@@ -5626,7 +5515,7 @@
         <v>5.9233821000000004</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="17.25" thickBot="1">
       <c r="A14" s="11">
         <v>28</v>
       </c>
@@ -5662,7 +5551,7 @@
         <v>2.9799945999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="17.25" thickBot="1">
       <c r="A15" s="15">
         <v>13</v>
       </c>
@@ -5698,7 +5587,7 @@
         <v>6.6264927200000008</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="17.25" thickBot="1">
       <c r="A16" s="11">
         <v>27</v>
       </c>
@@ -5734,7 +5623,7 @@
         <v>3.8356160400000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="17.25" thickBot="1">
       <c r="A17" s="11">
         <v>31</v>
       </c>
@@ -5770,7 +5659,7 @@
         <v>4.7095421100000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="17.25" thickBot="1">
       <c r="A18" s="11">
         <v>5</v>
       </c>
@@ -5806,7 +5695,7 @@
         <v>3.8074779300000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="17.25" thickBot="1">
       <c r="A19" s="11">
         <v>10</v>
       </c>
@@ -5842,7 +5731,7 @@
         <v>4.9945250000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="17.25" thickBot="1">
       <c r="A20" s="11">
         <v>16</v>
       </c>
@@ -5878,7 +5767,7 @@
         <v>3.5100970699999996</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="17.25" thickBot="1">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -5914,7 +5803,7 @@
         <v>5.2471900700000003</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="17.25" thickBot="1">
       <c r="A22" s="11">
         <v>35</v>
       </c>
@@ -5950,7 +5839,7 @@
         <v>3.7249056499999997</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="17.25" thickBot="1">
       <c r="A23" s="11">
         <v>158</v>
       </c>
@@ -5986,7 +5875,7 @@
         <v>4.9131757299999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="17.25" thickBot="1">
       <c r="A24" s="11">
         <v>24</v>
       </c>
@@ -6022,7 +5911,7 @@
         <v>4.2968753599999996</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="17.25" thickBot="1">
       <c r="A25" s="11">
         <v>56</v>
       </c>
@@ -6058,7 +5947,7 @@
         <v>3.6453137000000004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="17.25" thickBot="1">
       <c r="A26" s="11">
         <v>40</v>
       </c>
@@ -6094,7 +5983,7 @@
         <v>2.27317642</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="17.25" thickBot="1">
       <c r="A27" s="11">
         <v>42</v>
       </c>
@@ -6130,7 +6019,7 @@
         <v>3.6929638099999997</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="17.25" thickBot="1">
       <c r="A28" s="11">
         <v>4</v>
       </c>
@@ -6166,7 +6055,7 @@
         <v>2.2202611600000002</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="17.25" thickBot="1">
       <c r="A29" s="11">
         <v>55</v>
       </c>
@@ -6202,7 +6091,7 @@
         <v>2.6766494999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" ht="17.25" thickBot="1">
       <c r="A30" s="11">
         <v>17</v>
       </c>
@@ -6238,7 +6127,7 @@
         <v>2.3389375499999998</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="17.25" thickBot="1">
       <c r="A31" s="11">
         <v>20</v>
       </c>
@@ -6274,7 +6163,7 @@
         <v>1.5962007600000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="17.25" thickBot="1">
       <c r="A32" s="11">
         <v>18</v>
       </c>
@@ -6310,7 +6199,7 @@
         <v>2.8376175800000003</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="17.25" thickBot="1">
       <c r="A33" s="11">
         <v>30</v>
       </c>
@@ -6346,7 +6235,7 @@
         <v>3.7484397599999997</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="17.25" thickBot="1">
       <c r="A34" s="11">
         <v>53</v>
       </c>
@@ -6382,7 +6271,7 @@
         <v>1.9442531599999999</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="17.25" thickBot="1">
       <c r="A35" s="11">
         <v>11</v>
       </c>
@@ -6418,7 +6307,7 @@
         <v>1.46528612</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="17.25" thickBot="1">
       <c r="A36" s="11">
         <v>38</v>
       </c>
@@ -6454,7 +6343,7 @@
         <v>1.13952465</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" ht="17.25" thickBot="1">
       <c r="A37" s="11">
         <v>63</v>
       </c>
@@ -6490,7 +6379,7 @@
         <v>1.5915115400000002</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" ht="17.25" thickBot="1">
       <c r="A38" s="11">
         <v>65</v>
       </c>
@@ -6526,7 +6415,7 @@
         <v>1.26346504</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" ht="17.25" thickBot="1">
       <c r="A39" s="11">
         <v>48</v>
       </c>
@@ -6562,7 +6451,7 @@
         <v>1.7468513800000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" ht="17.25" thickBot="1">
       <c r="A40" s="11">
         <v>51</v>
       </c>
@@ -6598,7 +6487,7 @@
         <v>1.5523379000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="17.25" thickBot="1">
       <c r="A41" s="11">
         <v>37</v>
       </c>
@@ -6634,7 +6523,7 @@
         <v>0.94309335999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="17.25" thickBot="1">
       <c r="A42" s="11">
         <v>41</v>
       </c>
@@ -6670,7 +6559,7 @@
         <v>1.6516691999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="17.25" thickBot="1">
       <c r="A43" s="11">
         <v>47</v>
       </c>
@@ -6706,7 +6595,7 @@
         <v>1.8866737600000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="17.25" thickBot="1">
       <c r="A44" s="11">
         <v>43</v>
       </c>
@@ -6742,7 +6631,7 @@
         <v>0.63096971000000002</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" ht="17.25" thickBot="1">
       <c r="A45" s="11">
         <v>66</v>
       </c>
@@ -6778,7 +6667,7 @@
         <v>2.07941464</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="17.25" thickBot="1">
       <c r="A46" s="11">
         <v>36</v>
       </c>
@@ -6814,7 +6703,7 @@
         <v>1.10055412</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" ht="17.25" thickBot="1">
       <c r="A47" s="11">
         <v>29</v>
       </c>
@@ -6850,7 +6739,7 @@
         <v>1.1018590099999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="17.25" thickBot="1">
       <c r="A48" s="11">
         <v>14</v>
       </c>
@@ -6886,7 +6775,7 @@
         <v>1.4637738300000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" ht="17.25" thickBot="1">
       <c r="A49" s="11">
         <v>52</v>
       </c>
@@ -6922,7 +6811,7 @@
         <v>1.63477666</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="17.25" thickBot="1">
       <c r="A50" s="11">
         <v>33</v>
       </c>
@@ -6958,7 +6847,7 @@
         <v>1.3986296599999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="17.25" thickBot="1">
       <c r="A51" s="11">
         <v>32</v>
       </c>
@@ -6994,7 +6883,7 @@
         <v>1.3642472800000001</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="17.25" thickBot="1">
       <c r="A52" s="11">
         <v>34</v>
       </c>
@@ -7030,7 +6919,7 @@
         <v>1.32341222</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="17.25" thickBot="1">
       <c r="A53" s="11">
         <v>15</v>
       </c>
@@ -7066,7 +6955,7 @@
         <v>1.2119173699999999</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="17.25" thickBot="1">
       <c r="A54" s="11">
         <v>46</v>
       </c>
@@ -7102,7 +6991,7 @@
         <v>1.4548166899999999</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" ht="17.25" thickBot="1">
       <c r="A55" s="11">
         <v>39</v>
       </c>
@@ -7138,7 +7027,7 @@
         <v>1.38798135</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="17.25" thickBot="1">
       <c r="A56" s="11">
         <v>128</v>
       </c>
@@ -7174,7 +7063,7 @@
         <v>1.7141979999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="17.25" thickBot="1">
       <c r="A57" s="11">
         <v>81</v>
       </c>
@@ -7210,7 +7099,7 @@
         <v>0.91477286000000002</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="17.25" thickBot="1">
       <c r="A58" s="11">
         <v>78</v>
       </c>
@@ -7246,7 +7135,7 @@
         <v>0.85478536000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="17.25" thickBot="1">
       <c r="A59" s="11">
         <v>60</v>
       </c>
@@ -7282,7 +7171,7 @@
         <v>1.57154248</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="17.25" thickBot="1">
       <c r="A60" s="11">
         <v>76</v>
       </c>
@@ -7318,7 +7207,7 @@
         <v>0.96270874000000006</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="17.25" thickBot="1">
       <c r="A61" s="11">
         <v>75</v>
       </c>
@@ -7354,7 +7243,7 @@
         <v>0.54153709999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="17.25" thickBot="1">
       <c r="A62" s="11">
         <v>64</v>
       </c>
@@ -7390,7 +7279,7 @@
         <v>0.64011945999999997</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" ht="17.25" thickBot="1">
       <c r="A63" s="11">
         <v>45</v>
       </c>
@@ -7426,7 +7315,7 @@
         <v>1.07381401</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="17.25" thickBot="1">
       <c r="A64" s="11">
         <v>77</v>
       </c>
@@ -7462,7 +7351,7 @@
         <v>0.84253732999999997</v>
       </c>
     </row>
-    <row r="65" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="17.25" thickBot="1">
       <c r="A65" s="11">
         <v>122</v>
       </c>
@@ -7498,7 +7387,7 @@
         <v>0.10137452</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" ht="17.25" thickBot="1">
       <c r="A66" s="11">
         <v>138</v>
       </c>
@@ -7534,7 +7423,7 @@
         <v>0.67144768999999993</v>
       </c>
     </row>
-    <row r="67" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" ht="17.25" thickBot="1">
       <c r="A67" s="11">
         <v>137</v>
       </c>
@@ -7570,7 +7459,7 @@
         <v>0.31089972999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" ht="17.25" thickBot="1">
       <c r="A68" s="11">
         <v>67</v>
       </c>
@@ -7606,7 +7495,7 @@
         <v>0.80192918000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" ht="17.25" thickBot="1">
       <c r="A69" s="11">
         <v>50</v>
       </c>
@@ -7642,7 +7531,7 @@
         <v>0.81139722000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" ht="17.25" thickBot="1">
       <c r="A70" s="11">
         <v>99</v>
       </c>
@@ -7678,7 +7567,7 @@
         <v>9.1243699999999997E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" ht="17.25" thickBot="1">
       <c r="A71" s="11">
         <v>61</v>
       </c>
@@ -7714,7 +7603,7 @@
         <v>0.97245616000000012</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" ht="17.25" thickBot="1">
       <c r="A72" s="11">
         <v>72</v>
       </c>
@@ -7750,7 +7639,7 @@
         <v>-5.3055659999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" ht="17.25" thickBot="1">
       <c r="A73" s="11">
         <v>62</v>
       </c>
@@ -7786,7 +7675,7 @@
         <v>0.83146281999999994</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" ht="17.25" thickBot="1">
       <c r="A74" s="11">
         <v>57</v>
       </c>
@@ -7822,7 +7711,7 @@
         <v>0.64853548000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" ht="17.25" thickBot="1">
       <c r="A75" s="11">
         <v>54</v>
       </c>
@@ -7858,7 +7747,7 @@
         <v>0.50519026</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" ht="17.25" thickBot="1">
       <c r="A76" s="11">
         <v>73</v>
       </c>
@@ -7894,7 +7783,7 @@
         <v>0.51883288999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" ht="17.25" thickBot="1">
       <c r="A77" s="11">
         <v>95</v>
       </c>
@@ -7930,7 +7819,7 @@
         <v>0.56665155999999994</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" ht="17.25" thickBot="1">
       <c r="A78" s="11">
         <v>68</v>
       </c>
@@ -7966,7 +7855,7 @@
         <v>0.73895500000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="17.25" thickBot="1">
       <c r="A79" s="11">
         <v>71</v>
       </c>
@@ -8002,7 +7891,7 @@
         <v>0.59536146000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" ht="17.25" thickBot="1">
       <c r="A80" s="11">
         <v>49</v>
       </c>
@@ -8038,7 +7927,7 @@
         <v>0.40040697000000003</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" ht="17.25" thickBot="1">
       <c r="A81" s="11">
         <v>114</v>
       </c>
@@ -8074,7 +7963,7 @@
         <v>0.79826216999999999</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" ht="17.25" thickBot="1">
       <c r="A82" s="11">
         <v>106</v>
       </c>
@@ -8110,7 +7999,7 @@
         <v>0.12870559000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" ht="17.25" thickBot="1">
       <c r="A83" s="11">
         <v>82</v>
       </c>
@@ -8146,7 +8035,7 @@
         <v>0.61915893</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" ht="17.25" thickBot="1">
       <c r="A84" s="11">
         <v>90</v>
       </c>
@@ -8182,7 +8071,7 @@
         <v>0.81278599000000007</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" ht="17.25" thickBot="1">
       <c r="A85" s="11">
         <v>86</v>
       </c>
@@ -8218,7 +8107,7 @@
         <v>0.54942977000000004</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" ht="17.25" thickBot="1">
       <c r="A86" s="11">
         <v>80</v>
       </c>
@@ -8254,7 +8143,7 @@
         <v>0.67354678999999995</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" ht="17.25" thickBot="1">
       <c r="A87" s="11">
         <v>96</v>
       </c>
@@ -8290,7 +8179,7 @@
         <v>-0.32222040000000002</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" ht="17.25" thickBot="1">
       <c r="A88" s="11">
         <v>108</v>
       </c>
@@ -8326,7 +8215,7 @@
         <v>0.68195883000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" ht="17.25" thickBot="1">
       <c r="A89" s="11">
         <v>44</v>
       </c>
@@ -8362,7 +8251,7 @@
         <v>0.65434006</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" ht="17.25" thickBot="1">
       <c r="A90" s="11">
         <v>79</v>
       </c>
@@ -8398,7 +8287,7 @@
         <v>-1.1117900000000001E-3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" ht="17.25" thickBot="1">
       <c r="A91" s="11">
         <v>58</v>
       </c>
@@ -8434,7 +8323,7 @@
         <v>0.17578492000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" ht="17.25" thickBot="1">
       <c r="A92" s="11">
         <v>59</v>
       </c>
@@ -8470,7 +8359,7 @@
         <v>0.56728401000000006</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" ht="17.25" thickBot="1">
       <c r="A93" s="11">
         <v>70</v>
       </c>
@@ -8506,7 +8395,7 @@
         <v>0.24089481999999998</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" ht="17.25" thickBot="1">
       <c r="A94" s="11">
         <v>85</v>
       </c>
@@ -8542,7 +8431,7 @@
         <v>0.50870678999999996</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" ht="17.25" thickBot="1">
       <c r="A95" s="11">
         <v>88</v>
       </c>
@@ -8578,7 +8467,7 @@
         <v>0.47766108000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" ht="17.25" thickBot="1">
       <c r="A96" s="11">
         <v>112</v>
       </c>
@@ -8614,7 +8503,7 @@
         <v>0.57860427000000003</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="17.25" thickBot="1">
       <c r="A97" s="11">
         <v>103</v>
       </c>
@@ -8650,7 +8539,7 @@
         <v>0.55383008</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="17.25" thickBot="1">
       <c r="A98" s="11">
         <v>92</v>
       </c>
@@ -8686,7 +8575,7 @@
         <v>0.47418504999999994</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="17.25" thickBot="1">
       <c r="A99" s="11">
         <v>91</v>
       </c>
@@ -8722,7 +8611,7 @@
         <v>0.29664890999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="17.25" thickBot="1">
       <c r="A100" s="11">
         <v>171</v>
       </c>
@@ -8758,7 +8647,7 @@
         <v>-1.65492357</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="17.25" thickBot="1">
       <c r="A101" s="11">
         <v>100</v>
       </c>
@@ -8794,7 +8683,7 @@
         <v>0.34338993000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="17.25" thickBot="1">
       <c r="A102" s="11">
         <v>105</v>
       </c>
@@ -8830,7 +8719,7 @@
         <v>0.42130835999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="17.25" thickBot="1">
       <c r="A103" s="11">
         <v>142</v>
       </c>
@@ -8866,7 +8755,7 @@
         <v>0.50937049000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="17.25" thickBot="1">
       <c r="A104" s="11">
         <v>94</v>
       </c>
@@ -8902,7 +8791,7 @@
         <v>0.57085136000000003</v>
       </c>
     </row>
-    <row r="105" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" ht="17.25" thickBot="1">
       <c r="A105" s="11">
         <v>154</v>
       </c>
@@ -8938,7 +8827,7 @@
         <v>-2.005682E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" ht="17.25" thickBot="1">
       <c r="A106" s="11">
         <v>93</v>
       </c>
@@ -8974,7 +8863,7 @@
         <v>0.20940113999999999</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="17.25" thickBot="1">
       <c r="A107" s="11">
         <v>118</v>
       </c>
@@ -9010,7 +8899,7 @@
         <v>0.38561082000000002</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="17.25" thickBot="1">
       <c r="A108" s="11">
         <v>101</v>
       </c>
@@ -9046,7 +8935,7 @@
         <v>0.52121423</v>
       </c>
     </row>
-    <row r="109" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="17.25" thickBot="1">
       <c r="A109" s="11">
         <v>140</v>
       </c>
@@ -9082,7 +8971,7 @@
         <v>0.41483487999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="17.25" thickBot="1">
       <c r="A110" s="11">
         <v>89</v>
       </c>
@@ -9118,7 +9007,7 @@
         <v>0.34245587</v>
       </c>
     </row>
-    <row r="111" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="17.25" thickBot="1">
       <c r="A111" s="11">
         <v>157</v>
       </c>
@@ -9154,7 +9043,7 @@
         <v>-5.4592399999999998E-3</v>
       </c>
     </row>
-    <row r="112" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="17.25" thickBot="1">
       <c r="A112" s="11">
         <v>83</v>
       </c>
@@ -9190,7 +9079,7 @@
         <v>0.28096377</v>
       </c>
     </row>
-    <row r="113" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="17.25" thickBot="1">
       <c r="A113" s="11">
         <v>110</v>
       </c>
@@ -9226,7 +9115,7 @@
         <v>0.28293843000000002</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="17.25" thickBot="1">
       <c r="A114" s="11">
         <v>104</v>
       </c>
@@ -9262,7 +9151,7 @@
         <v>0.38041136000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="17.25" thickBot="1">
       <c r="A115" s="11">
         <v>109</v>
       </c>
@@ -9298,7 +9187,7 @@
         <v>0.39979935999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="17.25" thickBot="1">
       <c r="A116" s="11">
         <v>123</v>
       </c>
@@ -9334,7 +9223,7 @@
         <v>0.3399527</v>
       </c>
     </row>
-    <row r="117" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="17.25" thickBot="1">
       <c r="A117" s="11">
         <v>97</v>
       </c>
@@ -9370,7 +9259,7 @@
         <v>0.44110204999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="17.25" thickBot="1">
       <c r="A118" s="11">
         <v>124</v>
       </c>
@@ -9406,7 +9295,7 @@
         <v>0.39348434000000004</v>
       </c>
     </row>
-    <row r="119" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="17.25" thickBot="1">
       <c r="A119" s="11">
         <v>139</v>
       </c>
@@ -9442,7 +9331,7 @@
         <v>0.26750799000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="17.25" thickBot="1">
       <c r="A120" s="11">
         <v>168</v>
       </c>
@@ -9478,7 +9367,7 @@
         <v>0.18583716</v>
       </c>
     </row>
-    <row r="121" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="17.25" thickBot="1">
       <c r="A121" s="11">
         <v>160</v>
       </c>
@@ -9514,7 +9403,7 @@
         <v>0.38589056999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="17.25" thickBot="1">
       <c r="A122" s="11">
         <v>87</v>
       </c>
@@ -9550,7 +9439,7 @@
         <v>0.26533368999999996</v>
       </c>
     </row>
-    <row r="123" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="17.25" thickBot="1">
       <c r="A123" s="11">
         <v>107</v>
       </c>
@@ -9586,7 +9475,7 @@
         <v>0.30866509000000003</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="17.25" thickBot="1">
       <c r="A124" s="11">
         <v>74</v>
       </c>
@@ -9622,7 +9511,7 @@
         <v>0.18823920999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="17.25" thickBot="1">
       <c r="A125" s="11">
         <v>161</v>
       </c>
@@ -9658,7 +9547,7 @@
         <v>0.34092397999999996</v>
       </c>
     </row>
-    <row r="126" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="17.25" thickBot="1">
       <c r="A126" s="11">
         <v>98</v>
       </c>
@@ -9694,7 +9583,7 @@
         <v>0.34973606000000002</v>
       </c>
     </row>
-    <row r="127" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="17.25" thickBot="1">
       <c r="A127" s="11">
         <v>111</v>
       </c>
@@ -9730,7 +9619,7 @@
         <v>0.26062868</v>
       </c>
     </row>
-    <row r="128" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="17.25" thickBot="1">
       <c r="A128" s="11">
         <v>152</v>
       </c>
@@ -9766,7 +9655,7 @@
         <v>0.23740528</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="17.25" thickBot="1">
       <c r="A129" s="11">
         <v>131</v>
       </c>
@@ -9802,7 +9691,7 @@
         <v>0.30014605</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="17.25" thickBot="1">
       <c r="A130" s="11">
         <v>121</v>
       </c>
@@ -9838,7 +9727,7 @@
         <v>0.25918220000000003</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="17.25" thickBot="1">
       <c r="A131" s="11">
         <v>177</v>
       </c>
@@ -9874,7 +9763,7 @@
         <v>0.31670749999999998</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="17.25" thickBot="1">
       <c r="A132" s="11">
         <v>129</v>
       </c>
@@ -9910,7 +9799,7 @@
         <v>0.27804947000000002</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="17.25" thickBot="1">
       <c r="A133" s="11">
         <v>163</v>
       </c>
@@ -9946,7 +9835,7 @@
         <v>0.18950695000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="17.25" thickBot="1">
       <c r="A134" s="11">
         <v>143</v>
       </c>
@@ -9982,7 +9871,7 @@
         <v>0.24747104</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="17.25" thickBot="1">
       <c r="A135" s="11">
         <v>113</v>
       </c>
@@ -10018,7 +9907,7 @@
         <v>0.17725164999999998</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="17.25" thickBot="1">
       <c r="A136" s="11">
         <v>126</v>
       </c>
@@ -10054,7 +9943,7 @@
         <v>0.23259447</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="17.25" thickBot="1">
       <c r="A137" s="11">
         <v>134</v>
       </c>
@@ -10090,7 +9979,7 @@
         <v>0.23908824000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="17.25" thickBot="1">
       <c r="A138" s="11">
         <v>130</v>
       </c>
@@ -10126,7 +10015,7 @@
         <v>0.14941341999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="17.25" thickBot="1">
       <c r="A139" s="11">
         <v>174</v>
       </c>
@@ -10162,7 +10051,7 @@
         <v>0.24628393999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="17.25" thickBot="1">
       <c r="A140" s="11">
         <v>147</v>
       </c>
@@ -10198,7 +10087,7 @@
         <v>0.30381934999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="17.25" thickBot="1">
       <c r="A141" s="11">
         <v>132</v>
       </c>
@@ -10234,7 +10123,7 @@
         <v>0.17975737999999999</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="17.25" thickBot="1">
       <c r="A142" s="11">
         <v>164</v>
       </c>
@@ -10270,7 +10159,7 @@
         <v>0.25272865999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="17.25" thickBot="1">
       <c r="A143" s="11">
         <v>173</v>
       </c>
@@ -10306,7 +10195,7 @@
         <v>0.26025851999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="17.25" thickBot="1">
       <c r="A144" s="11">
         <v>135</v>
       </c>
@@ -10342,7 +10231,7 @@
         <v>0.26305024999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="17.25" thickBot="1">
       <c r="A145" s="11">
         <v>127</v>
       </c>
@@ -10378,7 +10267,7 @@
         <v>0.23175203000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="17.25" thickBot="1">
       <c r="A146" s="11">
         <v>141</v>
       </c>
@@ -10414,7 +10303,7 @@
         <v>0.21201673000000001</v>
       </c>
     </row>
-    <row r="147" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="17.25" thickBot="1">
       <c r="A147" s="11">
         <v>148</v>
       </c>
@@ -10450,7 +10339,7 @@
         <v>0.18872828</v>
       </c>
     </row>
-    <row r="148" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="17.25" thickBot="1">
       <c r="A148" s="11">
         <v>136</v>
       </c>
@@ -10486,7 +10375,7 @@
         <v>-7.1835910000000003E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="17.25" thickBot="1">
       <c r="A149" s="11">
         <v>190</v>
       </c>
@@ -10522,7 +10411,7 @@
         <v>0.1808554</v>
       </c>
     </row>
-    <row r="150" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="17.25" thickBot="1">
       <c r="A150" s="11">
         <v>150</v>
       </c>
@@ -10558,7 +10447,7 @@
         <v>0.11457889</v>
       </c>
     </row>
-    <row r="151" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="17.25" thickBot="1">
       <c r="A151" s="11">
         <v>119</v>
       </c>
@@ -10594,7 +10483,7 @@
         <v>6.2419190000000006E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="17.25" thickBot="1">
       <c r="A152" s="11">
         <v>153</v>
       </c>
@@ -10630,7 +10519,7 @@
         <v>3.4054859999999999E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="17.25" thickBot="1">
       <c r="A153" s="11">
         <v>172</v>
       </c>
@@ -10666,7 +10555,7 @@
         <v>9.4913250000000005E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="17.25" thickBot="1">
       <c r="A154" s="11">
         <v>183</v>
       </c>
@@ -10702,7 +10591,7 @@
         <v>0.1386635</v>
       </c>
     </row>
-    <row r="155" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="17.25" thickBot="1">
       <c r="A155" s="11">
         <v>146</v>
       </c>
@@ -10738,7 +10627,7 @@
         <v>0.15859432999999998</v>
       </c>
     </row>
-    <row r="156" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="17.25" thickBot="1">
       <c r="A156" s="11">
         <v>117</v>
       </c>
@@ -10774,7 +10663,7 @@
         <v>0.10071362</v>
       </c>
     </row>
-    <row r="157" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="17.25" thickBot="1">
       <c r="A157" s="11">
         <v>155</v>
       </c>
@@ -10810,7 +10699,7 @@
         <v>8.4647199999999992E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="17.25" thickBot="1">
       <c r="A158" s="11">
         <v>145</v>
       </c>
@@ -10846,7 +10735,7 @@
         <v>3.6042350000000001E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="17.25" thickBot="1">
       <c r="A159" s="11">
         <v>165</v>
       </c>
@@ -10882,7 +10771,7 @@
         <v>0.10244444000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="17.25" thickBot="1">
       <c r="A160" s="11">
         <v>133</v>
       </c>
@@ -10918,7 +10807,7 @@
         <v>9.0363990000000005E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="17.25" thickBot="1">
       <c r="A161" s="11">
         <v>196</v>
       </c>
@@ -10954,7 +10843,7 @@
         <v>0.10360148</v>
       </c>
     </row>
-    <row r="162" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="17.25" thickBot="1">
       <c r="A162" s="11">
         <v>188</v>
       </c>
@@ -10990,7 +10879,7 @@
         <v>9.3189930000000004E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="17.25" thickBot="1">
       <c r="A163" s="11">
         <v>144</v>
       </c>
@@ -11026,7 +10915,7 @@
         <v>-1.4653589999999999E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="17.25" thickBot="1">
       <c r="A164" s="11">
         <v>26</v>
       </c>
@@ -11062,7 +10951,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="165" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" ht="17.25" thickBot="1">
       <c r="A165" s="11">
         <v>69</v>
       </c>
@@ -11098,7 +10987,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="17.25" thickBot="1">
       <c r="A166" s="11">
         <v>84</v>
       </c>
@@ -11134,7 +11023,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="17.25" thickBot="1">
       <c r="A167" s="11">
         <v>102</v>
       </c>
@@ -11170,7 +11059,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="17.25" thickBot="1">
       <c r="A168" s="11">
         <v>115</v>
       </c>
@@ -11206,7 +11095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="169" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="17.25" thickBot="1">
       <c r="A169" s="11">
         <v>116</v>
       </c>
@@ -11242,7 +11131,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="170" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" ht="17.25" thickBot="1">
       <c r="A170" s="11">
         <v>120</v>
       </c>
@@ -11278,7 +11167,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="17.25" thickBot="1">
       <c r="A171" s="11">
         <v>125</v>
       </c>
@@ -11314,7 +11203,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="172" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="17.25" thickBot="1">
       <c r="A172" s="11">
         <v>149</v>
       </c>
@@ -11350,7 +11239,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="173" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="17.25" thickBot="1">
       <c r="A173" s="11">
         <v>151</v>
       </c>
@@ -11386,7 +11275,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="174" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="17.25" thickBot="1">
       <c r="A174" s="11">
         <v>156</v>
       </c>
@@ -11422,7 +11311,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="175" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="17.25" thickBot="1">
       <c r="A175" s="11">
         <v>159</v>
       </c>
@@ -11458,7 +11347,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="176" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="17.25" thickBot="1">
       <c r="A176" s="11">
         <v>162</v>
       </c>
@@ -11494,7 +11383,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="177" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="17.25" thickBot="1">
       <c r="A177" s="11">
         <v>166</v>
       </c>
@@ -11530,7 +11419,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="17.25" thickBot="1">
       <c r="A178" s="11">
         <v>167</v>
       </c>
@@ -11566,7 +11455,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="179" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="17.25" thickBot="1">
       <c r="A179" s="11">
         <v>169</v>
       </c>
@@ -11602,7 +11491,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="180" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="17.25" thickBot="1">
       <c r="A180" s="11">
         <v>170</v>
       </c>
@@ -11638,7 +11527,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="181" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="17.25" thickBot="1">
       <c r="A181" s="11">
         <v>175</v>
       </c>
@@ -11674,7 +11563,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="17.25" thickBot="1">
       <c r="A182" s="11">
         <v>176</v>
       </c>
@@ -11710,7 +11599,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="17.25" thickBot="1">
       <c r="A183" s="11">
         <v>178</v>
       </c>
@@ -11746,7 +11635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="184" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="17.25" thickBot="1">
       <c r="A184" s="11">
         <v>179</v>
       </c>
@@ -11782,7 +11671,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="185" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="17.25" thickBot="1">
       <c r="A185" s="11">
         <v>180</v>
       </c>
@@ -11818,7 +11707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="186" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="17.25" thickBot="1">
       <c r="A186" s="11">
         <v>181</v>
       </c>
@@ -11854,7 +11743,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="187" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="17.25" thickBot="1">
       <c r="A187" s="11">
         <v>182</v>
       </c>
@@ -11890,7 +11779,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="188" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="17.25" thickBot="1">
       <c r="A188" s="11">
         <v>184</v>
       </c>
@@ -11926,7 +11815,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="189" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="17.25" thickBot="1">
       <c r="A189" s="11">
         <v>185</v>
       </c>
@@ -11962,7 +11851,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="17.25" thickBot="1">
       <c r="A190" s="11">
         <v>186</v>
       </c>
@@ -11998,7 +11887,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="191" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="17.25" thickBot="1">
       <c r="A191" s="11">
         <v>187</v>
       </c>
@@ -12034,7 +11923,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="192" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="17.25" thickBot="1">
       <c r="A192" s="11">
         <v>189</v>
       </c>
@@ -12070,7 +11959,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="193" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" ht="17.25" thickBot="1">
       <c r="A193" s="11">
         <v>191</v>
       </c>
@@ -12106,7 +11995,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="194" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="17.25" thickBot="1">
       <c r="A194" s="11">
         <v>192</v>
       </c>
@@ -12142,7 +12031,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" ht="17.25" thickBot="1">
       <c r="A195" s="11">
         <v>193</v>
       </c>
@@ -12178,7 +12067,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="196" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="17.25" thickBot="1">
       <c r="A196" s="11">
         <v>194</v>
       </c>
@@ -12214,7 +12103,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="197" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" ht="17.25" thickBot="1">
       <c r="A197" s="11">
         <v>195</v>
       </c>
@@ -12250,7 +12139,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="198" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="17.25" thickBot="1">
       <c r="A198" s="11">
         <v>197</v>
       </c>
@@ -12286,7 +12175,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="199" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" ht="17.25" thickBot="1">
       <c r="A199" s="11">
         <v>198</v>
       </c>
@@ -12322,7 +12211,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" ht="17.25" thickBot="1">
       <c r="A200" s="11">
         <v>199</v>
       </c>
@@ -12358,7 +12247,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="201" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="17.25" thickBot="1">
       <c r="A201" s="11">
         <v>200</v>
       </c>
@@ -12394,7 +12283,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" ht="17.25" thickBot="1">
       <c r="A202" s="11">
         <v>201</v>
       </c>
@@ -12430,7 +12319,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="203" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" ht="17.25" thickBot="1">
       <c r="A203" s="11">
         <v>202</v>
       </c>
@@ -12466,7 +12355,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="17.25" thickBot="1">
       <c r="A204" s="11">
         <v>203</v>
       </c>
@@ -12502,7 +12391,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="205" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="17.25" thickBot="1">
       <c r="A205" s="11">
         <v>204</v>
       </c>
@@ -12538,7 +12427,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="206" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="17.25" thickBot="1">
       <c r="A206" s="11">
         <v>205</v>
       </c>
@@ -12574,7 +12463,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="207" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" ht="17.25" thickBot="1">
       <c r="A207" s="11">
         <v>206</v>
       </c>
@@ -12610,7 +12499,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="208" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="17.25" thickBot="1">
       <c r="A208" s="11">
         <v>207</v>
       </c>
@@ -12646,7 +12535,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="209" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="17.25" thickBot="1">
       <c r="A209" s="11">
         <v>208</v>
       </c>
@@ -12682,7 +12571,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="210" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" ht="17.25" thickBot="1">
       <c r="A210" s="11">
         <v>209</v>
       </c>
@@ -12718,7 +12607,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="211" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" ht="17.25" thickBot="1">
       <c r="A211" s="11">
         <v>210</v>
       </c>
@@ -12754,7 +12643,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" ht="17.25" thickBot="1">
       <c r="A212" s="11">
         <v>211</v>
       </c>
@@ -12790,7 +12679,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" ht="17.25" thickBot="1">
       <c r="A213" s="11">
         <v>212</v>
       </c>
@@ -12826,7 +12715,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="17.25" thickBot="1">
       <c r="A214" s="11">
         <v>213</v>
       </c>
@@ -12862,7 +12751,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" ht="17.25" thickBot="1">
       <c r="A215" s="11">
         <v>214</v>
       </c>
@@ -12898,7 +12787,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" ht="17.25" thickBot="1">
       <c r="A216" s="11">
         <v>215</v>
       </c>
@@ -12934,7 +12823,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" ht="17.25" thickBot="1">
       <c r="A217" s="11">
         <v>216</v>
       </c>
@@ -12970,7 +12859,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" ht="17.25" thickBot="1">
       <c r="A218" s="11">
         <v>217</v>
       </c>
@@ -13006,7 +12895,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="17.25" thickBot="1">
       <c r="A219" s="11">
         <v>218</v>
       </c>
@@ -13042,7 +12931,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="220" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" ht="17.25" thickBot="1">
       <c r="A220" s="11">
         <v>219</v>
       </c>
@@ -13078,7 +12967,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="17.25" thickBot="1">
       <c r="A221" s="11">
         <v>220</v>
       </c>
@@ -13114,7 +13003,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" ht="17.25" thickBot="1">
       <c r="A222" s="11">
         <v>221</v>
       </c>
@@ -13150,7 +13039,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" ht="17.25" thickBot="1">
       <c r="A223" s="11">
         <v>222</v>
       </c>
@@ -13186,7 +13075,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" ht="17.25" thickBot="1">
       <c r="A224" s="11">
         <v>223</v>
       </c>
@@ -13235,14 +13124,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="N51" sqref="N51"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13251,27 +13140,794 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
+    <col min="3" max="3" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="12" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="50.25" thickBot="1">
+      <c r="A1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K1" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="L1" s="19" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A2" s="11">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <v>4150.7309952799997</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>2</v>
+      </c>
+      <c r="F2" s="10">
+        <v>110.68845907000001</v>
+      </c>
+      <c r="G2" s="11">
+        <v>793</v>
+      </c>
+      <c r="H2" s="11"/>
+      <c r="I2" s="10">
+        <v>116.59662497000001</v>
+      </c>
+      <c r="J2" s="12">
+        <v>0.42284503563646902</v>
+      </c>
+      <c r="K2" s="20">
+        <v>-2.4574054800000003</v>
+      </c>
+      <c r="L2" s="20">
+        <v>19.054035580000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A3" s="11">
+        <v>22</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9">
+        <v>2183.33079266</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>22</v>
+      </c>
+      <c r="F3" s="10">
+        <v>107.7374832</v>
+      </c>
+      <c r="G3" s="11">
+        <v>780</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="10">
+        <v>120.57034096</v>
+      </c>
+      <c r="J3" s="12">
+        <v>0.61455946058335298</v>
+      </c>
+      <c r="K3" s="20">
+        <v>-1.8093638400000001</v>
+      </c>
+      <c r="L3" s="20">
+        <v>16.853329649999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A4" s="11">
+        <v>7</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9">
+        <v>3053.3357480099999</v>
+      </c>
+      <c r="D4" s="11">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3">
+        <v>7</v>
+      </c>
+      <c r="F4" s="10">
+        <v>88.980880720000002</v>
+      </c>
+      <c r="G4" s="11">
+        <v>718</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10">
+        <v>79.884294279999992</v>
+      </c>
+      <c r="J4" s="12">
+        <v>0.55619926066742098</v>
+      </c>
+      <c r="K4" s="20">
+        <v>-1.80987214</v>
+      </c>
+      <c r="L4" s="20">
+        <v>18.70367121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A5" s="11">
+        <v>1</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9">
+        <v>6009.8866705600003</v>
+      </c>
+      <c r="D5" s="11">
+        <v>4</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>82.31219625</v>
+      </c>
+      <c r="G5" s="11">
+        <v>683</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10">
+        <v>117.79652725</v>
+      </c>
+      <c r="J5" s="12">
+        <v>0.44921991277811402</v>
+      </c>
+      <c r="K5" s="20">
+        <v>-1.1970511500000001</v>
+      </c>
+      <c r="L5" s="20">
+        <v>12.495544049999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A6" s="11">
+        <v>6</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="9">
+        <v>3098.3315604099998</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3">
+        <v>6</v>
+      </c>
+      <c r="F6" s="10">
+        <v>59.061769299999995</v>
+      </c>
+      <c r="G6" s="11">
+        <v>643</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10">
+        <v>74.129494379999997</v>
+      </c>
+      <c r="J6" s="12">
+        <v>0.398494447913534</v>
+      </c>
+      <c r="K6" s="20">
+        <v>-0.98087860000000004</v>
+      </c>
+      <c r="L6" s="20">
+        <v>9.1069548099999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A7" s="11">
+        <v>9</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="9">
+        <v>2944.2076946100001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>6</v>
+      </c>
+      <c r="E7" s="3">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10">
+        <v>47.253510340000005</v>
+      </c>
+      <c r="G7" s="11">
+        <v>590</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10">
+        <v>55.898053260000005</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.53424312708955002</v>
+      </c>
+      <c r="K7" s="20">
+        <v>-0.81749084999999999</v>
+      </c>
+      <c r="L7" s="20">
+        <v>8.3511141900000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A8" s="11">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="9">
+        <v>3030.7566185699998</v>
+      </c>
+      <c r="D8" s="11">
+        <v>7</v>
+      </c>
+      <c r="E8" s="3">
+        <v>8</v>
+      </c>
+      <c r="F8" s="10">
+        <v>40.108977340000003</v>
+      </c>
+      <c r="G8" s="11">
+        <v>530</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10">
+        <v>40.707539189999999</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0.63162004020319895</v>
+      </c>
+      <c r="K8" s="20">
+        <v>-1.52222261</v>
+      </c>
+      <c r="L8" s="20">
+        <v>6.9545415099999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A9" s="11">
+        <v>25</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9">
+        <v>2150.4700298900002</v>
+      </c>
+      <c r="D9" s="11">
+        <v>8</v>
+      </c>
+      <c r="E9" s="3">
+        <v>25</v>
+      </c>
+      <c r="F9" s="10">
+        <v>39.858823270000002</v>
+      </c>
+      <c r="G9" s="11">
+        <v>509</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10">
+        <v>55.120471499999994</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.39926049803828001</v>
+      </c>
+      <c r="K9" s="20">
+        <v>-0.72048690999999998</v>
+      </c>
+      <c r="L9" s="20">
+        <v>7.6971143800000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A10" s="11">
+        <v>12</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="9">
+        <v>2764.4228737899998</v>
+      </c>
+      <c r="D10" s="11">
+        <v>9</v>
+      </c>
+      <c r="E10" s="3">
+        <v>12</v>
+      </c>
+      <c r="F10" s="10">
+        <v>39.812822320000002</v>
+      </c>
+      <c r="G10" s="11">
+        <v>465</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10">
+        <v>62.616452890000005</v>
+      </c>
+      <c r="J10" s="12">
+        <v>0.53692693319211005</v>
+      </c>
+      <c r="K10" s="20">
+        <v>-2.2062833099999999</v>
+      </c>
+      <c r="L10" s="20">
+        <v>11.96702404</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A11" s="11">
+        <v>23</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="9">
+        <v>2179.4023955499997</v>
+      </c>
+      <c r="D11" s="11">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10">
+        <v>38.269438110000003</v>
+      </c>
+      <c r="G11" s="11">
+        <v>337</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10">
+        <v>53.053641150000004</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.52130927092935098</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0.21122017999999998</v>
+      </c>
+      <c r="L11" s="20">
+        <v>4.5332383699999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A12" s="11">
+        <v>3</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="9">
+        <v>3553.48225542</v>
+      </c>
+      <c r="D12" s="11">
+        <v>11</v>
+      </c>
+      <c r="E12" s="3">
+        <v>3</v>
+      </c>
+      <c r="F12" s="10">
+        <v>37.047538250000002</v>
+      </c>
+      <c r="G12" s="11">
+        <v>528</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10">
+        <v>42.119240250000004</v>
+      </c>
+      <c r="J12" s="12">
+        <v>0.53474554088624204</v>
+      </c>
+      <c r="K12" s="20">
+        <v>-0.84723457999999996</v>
+      </c>
+      <c r="L12" s="20">
+        <v>6.8709594599999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A13" s="11">
+        <v>19</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2367.6686000300001</v>
+      </c>
+      <c r="D13" s="11">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>19</v>
+      </c>
+      <c r="F13" s="10">
+        <v>34.459560080000003</v>
+      </c>
+      <c r="G13" s="11">
+        <v>535</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10">
+        <v>45.604148460000005</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.49895762018097101</v>
+      </c>
+      <c r="K13" s="20">
+        <v>-1.8511670999999998</v>
+      </c>
+      <c r="L13" s="20">
+        <v>5.9233821000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A14" s="11">
+        <v>28</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="9">
+        <v>2038.3331014400001</v>
+      </c>
+      <c r="D14" s="11">
+        <v>13</v>
+      </c>
+      <c r="E14" s="3">
+        <v>28</v>
+      </c>
+      <c r="F14" s="10">
+        <v>34.08177517</v>
+      </c>
+      <c r="G14" s="11">
+        <v>373</v>
+      </c>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10">
+        <v>37.514149969999998</v>
+      </c>
+      <c r="J14" s="12">
+        <v>0.43159635601809498</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0.6063499</v>
+      </c>
+      <c r="L14" s="20">
+        <v>2.9799945999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A15" s="15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="14">
+        <v>2692.5002328599999</v>
+      </c>
+      <c r="D15" s="15">
+        <v>14</v>
+      </c>
+      <c r="E15" s="16">
+        <v>13</v>
+      </c>
+      <c r="F15" s="17">
+        <v>32.838685959999999</v>
+      </c>
+      <c r="G15" s="15">
+        <v>493</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="17">
+        <v>42.269232070000001</v>
+      </c>
+      <c r="J15" s="18">
+        <v>0.59894164169533703</v>
+      </c>
+      <c r="K15" s="20">
+        <v>-4.2723096100000006</v>
+      </c>
+      <c r="L15" s="20">
+        <v>6.6264927200000008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A16" s="11">
+        <v>27</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="9">
+        <v>2041.93263398</v>
+      </c>
+      <c r="D16" s="11">
+        <v>15</v>
+      </c>
+      <c r="E16" s="3">
+        <v>27</v>
+      </c>
+      <c r="F16" s="10">
+        <v>31.495460100000003</v>
+      </c>
+      <c r="G16" s="11">
+        <v>469</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10">
+        <v>31.271785059999999</v>
+      </c>
+      <c r="J16" s="12">
+        <v>0.58185227178186205</v>
+      </c>
+      <c r="K16" s="20">
+        <v>-0.80399939000000009</v>
+      </c>
+      <c r="L16" s="20">
+        <v>3.8356160400000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A17" s="11">
+        <v>31</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9">
+        <v>2009.9168373699999</v>
+      </c>
+      <c r="D17" s="11">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3">
+        <v>31</v>
+      </c>
+      <c r="F17" s="10">
+        <v>29.20344927</v>
+      </c>
+      <c r="G17" s="11">
+        <v>526</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10">
+        <v>53.976426969999991</v>
+      </c>
+      <c r="J17" s="12">
+        <v>0.417382798768277</v>
+      </c>
+      <c r="K17" s="20">
+        <v>-1.3835111</v>
+      </c>
+      <c r="L17" s="20">
+        <v>4.7095421100000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A18" s="11">
+        <v>5</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="9">
+        <v>3105.93364625</v>
+      </c>
+      <c r="D18" s="11">
+        <v>17</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10">
+        <v>28.79486692</v>
+      </c>
+      <c r="G18" s="11">
+        <v>443</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10">
+        <v>42.896066070000003</v>
+      </c>
+      <c r="J18" s="12">
+        <v>0.43606720339723698</v>
+      </c>
+      <c r="K18" s="20">
+        <v>-0.77026128999999999</v>
+      </c>
+      <c r="L18" s="20">
+        <v>3.8074779300000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A19" s="11">
+        <v>10</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="9">
+        <v>2879.5521196300001</v>
+      </c>
+      <c r="D19" s="11">
+        <v>18</v>
+      </c>
+      <c r="E19" s="3">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10">
+        <v>27.622340429999998</v>
+      </c>
+      <c r="G19" s="11">
+        <v>433</v>
+      </c>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10">
+        <v>26.251501600000001</v>
+      </c>
+      <c r="J19" s="12">
+        <v>0.44465989806787698</v>
+      </c>
+      <c r="K19" s="20">
+        <v>-0.37133156</v>
+      </c>
+      <c r="L19" s="20">
+        <v>4.9945250000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A20" s="11">
+        <v>16</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="9">
+        <v>2550.6357511400001</v>
+      </c>
+      <c r="D20" s="11">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16</v>
+      </c>
+      <c r="F20" s="10">
+        <v>27.584257439999998</v>
+      </c>
+      <c r="G20" s="11">
+        <v>224</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10">
+        <v>20.105327450000001</v>
+      </c>
+      <c r="J20" s="12">
+        <v>0.38731386020591002</v>
+      </c>
+      <c r="K20" s="20">
+        <v>-1.5185006400000001</v>
+      </c>
+      <c r="L20" s="20">
+        <v>3.5100970699999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A21" s="11">
+        <v>21</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2218.7200692599999</v>
+      </c>
+      <c r="D21" s="11">
+        <v>20</v>
+      </c>
+      <c r="E21" s="3">
+        <v>21</v>
+      </c>
+      <c r="F21" s="10">
+        <v>24.33709086</v>
+      </c>
+      <c r="G21" s="11">
+        <v>460</v>
+      </c>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10">
+        <v>40.549498870000001</v>
+      </c>
+      <c r="J21" s="12">
+        <v>0.41081256866376398</v>
+      </c>
+      <c r="K21" s="20">
+        <v>-1.5857703999999999</v>
+      </c>
+      <c r="L21" s="20">
+        <v>5.2471900700000003</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.75" customWidth="1"/>
@@ -13281,8 +13937,8 @@
     <col min="12" max="12" width="9.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="50.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" ht="50.25" thickBot="1">
+      <c r="A1" s="11" t="s">
         <v>234</v>
       </c>
       <c r="B1" s="5" t="s">
@@ -13319,8 +13975,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="2" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A2" s="11">
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
@@ -13355,8 +14011,8 @@
         <v>124955.4405</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="3" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
@@ -13391,8 +14047,8 @@
         <v>190540.35579999999</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="4" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A4" s="11">
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -13427,8 +14083,8 @@
         <v>68709.594599999997</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A5" s="11">
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -13463,8 +14119,8 @@
         <v>22202.6116</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A6" s="11">
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -13499,8 +14155,8 @@
         <v>38074.779300000002</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="7" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A7" s="11">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -13535,8 +14191,8 @@
         <v>91069.5481</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1">
+    <row r="8" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A8" s="11">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -13571,8 +14227,8 @@
         <v>187036.7121</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
+    <row r="9" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A9" s="11">
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -13607,8 +14263,8 @@
         <v>69545.415099999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
+    <row r="10" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A10" s="11">
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
@@ -13643,8 +14299,8 @@
         <v>83511.141900000002</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+    <row r="11" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A11" s="11">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -13679,8 +14335,8 @@
         <v>49945.25</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
+    <row r="12" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A12" s="11">
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -13715,8 +14371,8 @@
         <v>14652.861199999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
+    <row r="13" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A13" s="11">
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -13751,8 +14407,8 @@
         <v>119670.2404</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
+    <row r="14" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A14" s="11">
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
@@ -13787,8 +14443,8 @@
         <v>66264.927200000006</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
+    <row r="15" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A15" s="11">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -13823,8 +14479,8 @@
         <v>14637.738300000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
+    <row r="16" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A16" s="11">
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -13859,8 +14515,8 @@
         <v>12119.173699999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
+    <row r="17" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -13895,8 +14551,8 @@
         <v>35100.970699999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
+    <row r="18" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A18" s="11">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
@@ -13931,8 +14587,8 @@
         <v>23389.375499999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
+    <row r="19" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A19" s="11">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -13967,8 +14623,8 @@
         <v>28376.175800000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
+    <row r="20" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A20" s="11">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
@@ -14003,8 +14659,8 @@
         <v>59233.821000000004</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
+    <row r="21" spans="1:12" ht="17.25" thickBot="1">
+      <c r="A21" s="11">
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
@@ -14042,5 +14698,6 @@
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>